--- a/Testing/Triangles Worksheet.xlsx
+++ b/Testing/Triangles Worksheet.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/swc/Dropbox/UnderGit/cs1440s17-instructor/Homework/HW3/Triangles/Testing/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kidma/CLionProjects/CS1440/Triangle-Assn3/Testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="25360" yWindow="4400" windowWidth="21540" windowHeight="17840" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -95,9 +95,6 @@
     <t>TRIANGLE #1</t>
   </si>
   <si>
-    <t>x2 -x2</t>
-  </si>
-  <si>
     <t>y2-y1</t>
   </si>
   <si>
@@ -171,6 +168,9 @@
   </si>
   <si>
     <t>TRIANGLE #6</t>
+  </si>
+  <si>
+    <t>x2 -x1</t>
   </si>
 </sst>
 </file>
@@ -582,8 +582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="H65" sqref="H65"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -608,7 +608,7 @@
   <sheetData>
     <row r="1" spans="1:28" ht="64" x14ac:dyDescent="0.2">
       <c r="T1" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:28" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
@@ -624,48 +624,48 @@
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
       <c r="J2" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="L2" s="12" t="s">
         <v>23</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>24</v>
       </c>
       <c r="M2" s="12"/>
       <c r="N2" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="P2" s="12" t="s">
         <v>43</v>
-      </c>
-      <c r="P2" s="12" t="s">
-        <v>44</v>
       </c>
       <c r="Q2" s="5"/>
       <c r="R2" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="W2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="Z2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="Y2" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z2" s="6" t="s">
+      <c r="AA2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AA2" s="4" t="s">
+      <c r="AB2" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="AB2" s="4" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.2">
@@ -700,17 +700,17 @@
       </c>
       <c r="M3" s="13"/>
       <c r="N3" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O3" s="13" t="s">
+      <c r="P3" s="13" t="s">
         <v>40</v>
-      </c>
-      <c r="P3" s="13" t="s">
-        <v>41</v>
       </c>
       <c r="Q3" s="7"/>
       <c r="R3" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S3" s="7"/>
       <c r="T3" s="7" t="s">
@@ -739,7 +739,7 @@
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="10">
         <v>1</v>
@@ -772,15 +772,15 @@
         <v>-4</v>
       </c>
       <c r="N4" s="10">
-        <f>J4*J4</f>
+        <f t="shared" ref="N4:P6" si="1">J4*J4</f>
         <v>4</v>
       </c>
       <c r="O4" s="10">
-        <f>K4*K4</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P4" s="10">
-        <f>L4*L4</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="R4">
@@ -804,32 +804,32 @@
         <v>2.2360679774997898</v>
       </c>
       <c r="Z4">
-        <f>J4/W4</f>
+        <f t="shared" ref="Z4:AB6" si="2">J4/W4</f>
         <v>0.48507125007266594</v>
       </c>
       <c r="AA4">
-        <f>K4/X4</f>
+        <f t="shared" si="2"/>
         <v>-0.22360679774997896</v>
       </c>
       <c r="AB4">
-        <f>L4/Y4</f>
+        <f t="shared" si="2"/>
         <v>-1.7888543819998317</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="10">
-        <f t="shared" ref="B5:D6" si="1">F4</f>
+        <f t="shared" ref="B5:D6" si="3">F4</f>
         <v>3</v>
       </c>
       <c r="C5" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D5" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="F5" s="10">
@@ -854,15 +854,15 @@
         <v>-1</v>
       </c>
       <c r="N5" s="10">
-        <f>J5*J5</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="O5" s="10">
-        <f>K5*K5</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="P5" s="10">
-        <f>L5*L5</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="R5">
@@ -886,32 +886,32 @@
         <v>4.2426406871192848</v>
       </c>
       <c r="Z5">
-        <f>J5/W5</f>
+        <f t="shared" si="2"/>
         <v>0.94868329805051377</v>
       </c>
       <c r="AA5">
-        <f>K5/X5</f>
+        <f t="shared" si="2"/>
         <v>0.94868329805051377</v>
       </c>
       <c r="AB5">
-        <f>L5/Y5</f>
+        <f t="shared" si="2"/>
         <v>-0.23570226039551587</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="C6" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="D6" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="F6" s="10">
@@ -939,15 +939,15 @@
         <v>5</v>
       </c>
       <c r="N6" s="10">
-        <f>J6*J6</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="O6" s="10">
-        <f>K6*K6</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="P6" s="10">
-        <f>L6*L6</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="R6">
@@ -971,15 +971,15 @@
         <v>5.3851648071345037</v>
       </c>
       <c r="Z6">
-        <f>J6/W6</f>
+        <f t="shared" si="2"/>
         <v>-0.92847669088525941</v>
       </c>
       <c r="AA6">
-        <f>K6/X6</f>
+        <f t="shared" si="2"/>
         <v>-0.28284271247461901</v>
       </c>
       <c r="AB6">
-        <f>L6/Y6</f>
+        <f t="shared" si="2"/>
         <v>0.92847669088525941</v>
       </c>
     </row>
@@ -1078,7 +1078,7 @@
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" s="10">
         <v>-10</v>
@@ -1099,27 +1099,27 @@
         <v>0</v>
       </c>
       <c r="J15" s="10">
-        <f t="shared" ref="J15:L17" si="2">F15-B15</f>
+        <f t="shared" ref="J15:L17" si="4">F15-B15</f>
         <v>20</v>
       </c>
       <c r="K15" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L15" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N15" s="10">
-        <f>J15*J15</f>
+        <f t="shared" ref="N15:P17" si="5">J15*J15</f>
         <v>400</v>
       </c>
       <c r="O15" s="10">
-        <f>K15*K15</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P15" s="10">
-        <f>L15*L15</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R15">
@@ -1143,32 +1143,32 @@
         <v>20</v>
       </c>
       <c r="Z15" t="e">
-        <f>J15/W15</f>
+        <f t="shared" ref="Z15:AB17" si="6">J15/W15</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AA15">
-        <f>K15/X15</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB15">
-        <f>L15/Y15</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" s="10">
-        <f t="shared" ref="B16:D17" si="3">F15</f>
+        <f t="shared" ref="B16:D17" si="7">F15</f>
         <v>10</v>
       </c>
       <c r="C16" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D16" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F16" s="10">
@@ -1181,27 +1181,27 @@
         <v>0</v>
       </c>
       <c r="J16" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-10</v>
       </c>
       <c r="K16" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>17.32050808</v>
       </c>
       <c r="L16" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N16" s="10">
-        <f>J16*J16</f>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="O16" s="10">
-        <f>K16*K16</f>
+        <f t="shared" si="5"/>
         <v>300.00000014934528</v>
       </c>
       <c r="P16" s="10">
-        <f>L16*L16</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R16">
@@ -1225,32 +1225,32 @@
         <v>20.000000003733632</v>
       </c>
       <c r="Z16">
-        <f>J16/W16</f>
+        <f t="shared" si="6"/>
         <v>-0.57735026904591824</v>
       </c>
       <c r="AA16">
-        <f>K16/X16</f>
+        <f t="shared" si="6"/>
         <v>1.7320508079999999</v>
       </c>
       <c r="AB16">
-        <f>L16/Y16</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="C17" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>17.32050808</v>
       </c>
       <c r="D17" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F17" s="10">
@@ -1266,27 +1266,27 @@
         <v>0</v>
       </c>
       <c r="J17" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-10</v>
       </c>
       <c r="K17" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-17.32050808</v>
       </c>
       <c r="L17" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N17" s="10">
-        <f>J17*J17</f>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="O17" s="10">
-        <f>K17*K17</f>
+        <f t="shared" si="5"/>
         <v>300.00000014934528</v>
       </c>
       <c r="P17" s="10">
-        <f>L17*L17</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R17">
@@ -1310,15 +1310,15 @@
         <v>20.000000003733632</v>
       </c>
       <c r="Z17">
-        <f>J17/W17</f>
+        <f t="shared" si="6"/>
         <v>-0.57735026904591824</v>
       </c>
       <c r="AA17">
-        <f>K17/X17</f>
+        <f t="shared" si="6"/>
         <v>-1.7320508079999999</v>
       </c>
       <c r="AB17">
-        <f>L17/Y17</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -1350,7 +1350,7 @@
     </row>
     <row r="22" spans="1:28" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.2">
@@ -1418,7 +1418,7 @@
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" s="10">
         <v>-10</v>
@@ -1439,27 +1439,27 @@
         <v>0</v>
       </c>
       <c r="J25" s="10">
-        <f t="shared" ref="J25:J27" si="4">F25-B25</f>
+        <f t="shared" ref="J25:J27" si="8">F25-B25</f>
         <v>20</v>
       </c>
       <c r="K25" s="10">
-        <f t="shared" ref="K25:K27" si="5">G25-C25</f>
+        <f t="shared" ref="K25:K27" si="9">G25-C25</f>
         <v>0</v>
       </c>
       <c r="L25" s="10">
-        <f t="shared" ref="L25:L27" si="6">H25-D25</f>
+        <f t="shared" ref="L25:L27" si="10">H25-D25</f>
         <v>0</v>
       </c>
       <c r="N25" s="10">
-        <f>J25*J25</f>
+        <f t="shared" ref="N25:P27" si="11">J25*J25</f>
         <v>400</v>
       </c>
       <c r="O25" s="10">
-        <f>K25*K25</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P25" s="10">
-        <f>L25*L25</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R25">
@@ -1483,32 +1483,32 @@
         <v>20</v>
       </c>
       <c r="Z25" t="e">
-        <f>J25/W25</f>
+        <f t="shared" ref="Z25:AB27" si="12">J25/W25</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AA25">
-        <f>K25/X25</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AB25">
-        <f>L25/Y25</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" s="10">
-        <f t="shared" ref="B26:B27" si="7">F25</f>
+        <f t="shared" ref="B26:B27" si="13">F25</f>
         <v>10</v>
       </c>
       <c r="C26" s="10">
-        <f t="shared" ref="C26:C27" si="8">G25</f>
+        <f t="shared" ref="C26:C27" si="14">G25</f>
         <v>0</v>
       </c>
       <c r="D26" s="10">
-        <f t="shared" ref="D26:D27" si="9">H25</f>
+        <f t="shared" ref="D26:D27" si="15">H25</f>
         <v>0</v>
       </c>
       <c r="F26" s="10">
@@ -1521,27 +1521,27 @@
         <v>0</v>
       </c>
       <c r="J26" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-10</v>
       </c>
       <c r="K26" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>33</v>
       </c>
       <c r="L26" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N26" s="10">
-        <f>J26*J26</f>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="O26" s="10">
-        <f>K26*K26</f>
+        <f t="shared" si="11"/>
         <v>1089</v>
       </c>
       <c r="P26" s="10">
-        <f>L26*L26</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R26">
@@ -1565,32 +1565,32 @@
         <v>34.481879299133332</v>
       </c>
       <c r="Z26">
-        <f>J26/W26</f>
+        <f t="shared" si="12"/>
         <v>-0.30303030303030304</v>
       </c>
       <c r="AA26">
-        <f>K26/X26</f>
+        <f t="shared" si="12"/>
         <v>3.3</v>
       </c>
       <c r="AB26">
-        <f>L26/Y26</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="C27" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>33</v>
       </c>
       <c r="D27" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="F27" s="10">
@@ -1606,27 +1606,27 @@
         <v>0</v>
       </c>
       <c r="J27" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-10</v>
       </c>
       <c r="K27" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-33</v>
       </c>
       <c r="L27" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N27" s="10">
-        <f>J27*J27</f>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="O27" s="10">
-        <f>K27*K27</f>
+        <f t="shared" si="11"/>
         <v>1089</v>
       </c>
       <c r="P27" s="10">
-        <f>L27*L27</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R27">
@@ -1650,15 +1650,15 @@
         <v>34.481879299133332</v>
       </c>
       <c r="Z27">
-        <f>J27/W27</f>
+        <f t="shared" si="12"/>
         <v>-0.30303030303030304</v>
       </c>
       <c r="AA27">
-        <f>K27/X27</f>
+        <f t="shared" si="12"/>
         <v>-3.3</v>
       </c>
       <c r="AB27">
-        <f>L27/Y27</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -1690,7 +1690,7 @@
     </row>
     <row r="33" spans="1:20" ht="21" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.2">
@@ -1738,7 +1738,7 @@
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B36" s="10">
         <v>2.2999999999999998</v>
@@ -1759,27 +1759,27 @@
         <v>40</v>
       </c>
       <c r="J36" s="10">
-        <f t="shared" ref="J36:J38" si="10">F36-B36</f>
+        <f t="shared" ref="J36:J38" si="16">F36-B36</f>
         <v>9.9499999999999993</v>
       </c>
       <c r="K36" s="10">
-        <f t="shared" ref="K36:K38" si="11">G36-C36</f>
+        <f t="shared" ref="K36:K38" si="17">G36-C36</f>
         <v>-2.85</v>
       </c>
       <c r="L36" s="10">
-        <f t="shared" ref="L36:L38" si="12">H36-D36</f>
+        <f t="shared" ref="L36:L38" si="18">H36-D36</f>
         <v>15</v>
       </c>
       <c r="N36" s="10">
-        <f>J36*J36</f>
+        <f t="shared" ref="N36:P38" si="19">J36*J36</f>
         <v>99.002499999999984</v>
       </c>
       <c r="O36" s="10">
-        <f>K36*K36</f>
+        <f t="shared" si="19"/>
         <v>8.1225000000000005</v>
       </c>
       <c r="P36" s="10">
-        <f>L36*L36</f>
+        <f t="shared" si="19"/>
         <v>225</v>
       </c>
       <c r="R36">
@@ -1793,18 +1793,18 @@
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B37" s="10">
-        <f t="shared" ref="B37:B38" si="13">F36</f>
+        <f t="shared" ref="B37:B38" si="20">F36</f>
         <v>12.25</v>
       </c>
       <c r="C37" s="10">
-        <f t="shared" ref="C37:C38" si="14">G36</f>
+        <f t="shared" ref="C37:C38" si="21">G36</f>
         <v>2.4</v>
       </c>
       <c r="D37" s="10">
-        <f t="shared" ref="D37:D38" si="15">H36</f>
+        <f t="shared" ref="D37:D38" si="22">H36</f>
         <v>40</v>
       </c>
       <c r="F37" s="10">
@@ -1817,27 +1817,27 @@
         <v>3.2</v>
       </c>
       <c r="J37" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>-0.25</v>
       </c>
       <c r="K37" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>5.9</v>
       </c>
       <c r="L37" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>-36.799999999999997</v>
       </c>
       <c r="N37" s="10">
-        <f>J37*J37</f>
+        <f t="shared" si="19"/>
         <v>6.25E-2</v>
       </c>
       <c r="O37" s="10">
-        <f>K37*K37</f>
+        <f t="shared" si="19"/>
         <v>34.81</v>
       </c>
       <c r="P37" s="10">
-        <f>L37*L37</f>
+        <f t="shared" si="19"/>
         <v>1354.2399999999998</v>
       </c>
       <c r="R37">
@@ -1851,18 +1851,18 @@
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B38" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>12</v>
       </c>
       <c r="C38" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>8.3000000000000007</v>
       </c>
       <c r="D38" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>3.2</v>
       </c>
       <c r="F38" s="10">
@@ -1878,27 +1878,27 @@
         <v>25</v>
       </c>
       <c r="J38" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>-9.6999999999999993</v>
       </c>
       <c r="K38" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>-3.0500000000000007</v>
       </c>
       <c r="L38" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>21.8</v>
       </c>
       <c r="N38" s="10">
-        <f>J38*J38</f>
+        <f t="shared" si="19"/>
         <v>94.089999999999989</v>
       </c>
       <c r="O38" s="10">
-        <f>K38*K38</f>
+        <f t="shared" si="19"/>
         <v>9.3025000000000038</v>
       </c>
       <c r="P38" s="10">
-        <f>L38*L38</f>
+        <f t="shared" si="19"/>
         <v>475.24</v>
       </c>
       <c r="R38">
@@ -1938,7 +1938,7 @@
     </row>
     <row r="44" spans="1:20" ht="21" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.2">
@@ -1986,7 +1986,7 @@
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B47" s="10">
         <v>1</v>
@@ -2007,27 +2007,27 @@
         <v>5</v>
       </c>
       <c r="J47" s="10">
-        <f t="shared" ref="J47:J49" si="16">F47-B47</f>
+        <f t="shared" ref="J47:J49" si="23">F47-B47</f>
         <v>2</v>
       </c>
       <c r="K47" s="10">
-        <f t="shared" ref="K47:K49" si="17">G47-C47</f>
+        <f t="shared" ref="K47:K49" si="24">G47-C47</f>
         <v>4</v>
       </c>
       <c r="L47" s="10">
-        <f t="shared" ref="L47:L49" si="18">H47-D47</f>
+        <f t="shared" ref="L47:L49" si="25">H47-D47</f>
         <v>5</v>
       </c>
       <c r="N47" s="10">
-        <f>J47*J47</f>
+        <f t="shared" ref="N47:P49" si="26">J47*J47</f>
         <v>4</v>
       </c>
       <c r="O47" s="10">
-        <f>K47*K47</f>
+        <f t="shared" si="26"/>
         <v>16</v>
       </c>
       <c r="P47" s="10">
-        <f>L47*L47</f>
+        <f t="shared" si="26"/>
         <v>25</v>
       </c>
       <c r="R47">
@@ -2041,18 +2041,18 @@
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B48" s="10">
-        <f t="shared" ref="B48:B49" si="19">F47</f>
+        <f t="shared" ref="B48:B49" si="27">F47</f>
         <v>3</v>
       </c>
       <c r="C48" s="10">
-        <f t="shared" ref="C48:C49" si="20">G47</f>
+        <f t="shared" ref="C48:C49" si="28">G47</f>
         <v>4</v>
       </c>
       <c r="D48" s="10">
-        <f t="shared" ref="D48:D49" si="21">H47</f>
+        <f t="shared" ref="D48:D49" si="29">H47</f>
         <v>5</v>
       </c>
       <c r="F48" s="10">
@@ -2065,27 +2065,27 @@
         <v>4</v>
       </c>
       <c r="J48" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>-1</v>
       </c>
       <c r="K48" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>-1</v>
       </c>
       <c r="L48" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>-1</v>
       </c>
       <c r="N48" s="10">
-        <f>J48*J48</f>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="O48" s="10">
-        <f>K48*K48</f>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="P48" s="10">
-        <f>L48*L48</f>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="R48">
@@ -2099,18 +2099,18 @@
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B49" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>2</v>
       </c>
       <c r="C49" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>3</v>
       </c>
       <c r="D49" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>4</v>
       </c>
       <c r="F49" s="10">
@@ -2126,27 +2126,27 @@
         <v>0</v>
       </c>
       <c r="J49" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>-1</v>
       </c>
       <c r="K49" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>-3</v>
       </c>
       <c r="L49" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>-4</v>
       </c>
       <c r="N49" s="10">
-        <f>J49*J49</f>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="O49" s="10">
-        <f>K49*K49</f>
+        <f t="shared" si="26"/>
         <v>9</v>
       </c>
       <c r="P49" s="10">
-        <f>L49*L49</f>
+        <f t="shared" si="26"/>
         <v>16</v>
       </c>
       <c r="R49">
@@ -2186,7 +2186,7 @@
     </row>
     <row r="55" spans="1:20" ht="21" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.2">
@@ -2234,7 +2234,7 @@
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B58" s="10">
         <v>1</v>
@@ -2255,27 +2255,27 @@
         <v>5</v>
       </c>
       <c r="J58" s="10">
-        <f t="shared" ref="J58:J60" si="22">F58-B58</f>
+        <f t="shared" ref="J58:J60" si="30">F58-B58</f>
         <v>2</v>
       </c>
       <c r="K58" s="10">
-        <f t="shared" ref="K58:K60" si="23">G58-C58</f>
+        <f t="shared" ref="K58:K60" si="31">G58-C58</f>
         <v>-1</v>
       </c>
       <c r="L58" s="10">
-        <f t="shared" ref="L58:L60" si="24">H58-D58</f>
+        <f t="shared" ref="L58:L60" si="32">H58-D58</f>
         <v>5</v>
       </c>
       <c r="N58" s="10">
-        <f>J58*J58</f>
+        <f t="shared" ref="N58:P60" si="33">J58*J58</f>
         <v>4</v>
       </c>
       <c r="O58" s="10">
-        <f>K58*K58</f>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="P58" s="10">
-        <f>L58*L58</f>
+        <f t="shared" si="33"/>
         <v>25</v>
       </c>
       <c r="R58">
@@ -2289,18 +2289,18 @@
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B59" s="10">
-        <f t="shared" ref="B59:B60" si="25">F58</f>
+        <f t="shared" ref="B59:B60" si="34">F58</f>
         <v>3</v>
       </c>
       <c r="C59" s="10">
-        <f t="shared" ref="C59:C60" si="26">G58</f>
+        <f t="shared" ref="C59:C60" si="35">G58</f>
         <v>0</v>
       </c>
       <c r="D59" s="10">
-        <f t="shared" ref="D59:D60" si="27">H58</f>
+        <f t="shared" ref="D59:D60" si="36">H58</f>
         <v>5</v>
       </c>
       <c r="F59" s="10">
@@ -2313,27 +2313,27 @@
         <v>0</v>
       </c>
       <c r="J59" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>-3</v>
       </c>
       <c r="K59" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="L59" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>-5</v>
       </c>
       <c r="N59" s="10">
-        <f>J59*J59</f>
+        <f t="shared" si="33"/>
         <v>9</v>
       </c>
       <c r="O59" s="10">
-        <f>K59*K59</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="P59" s="10">
-        <f>L59*L59</f>
+        <f t="shared" si="33"/>
         <v>25</v>
       </c>
       <c r="R59">
@@ -2347,18 +2347,18 @@
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B60" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="C60" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="D60" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="F60" s="10">
@@ -2374,27 +2374,27 @@
         <v>0</v>
       </c>
       <c r="J60" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="K60" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="L60" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="N60" s="10">
-        <f>J60*J60</f>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="O60" s="10">
-        <f>K60*K60</f>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="P60" s="10">
-        <f>L60*L60</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="R60">
